--- a/misc/visao.xlsx
+++ b/misc/visao.xlsx
@@ -1,21 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\main-regressao-linear\misc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09335918-70FF-4F45-8DE5-1F6D9E8E5B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+  <si>
+    <t>ident</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b0 + b1*idade</t>
+  </si>
+  <si>
+    <t>venda</t>
+  </si>
+  <si>
+    <t>preco</t>
+  </si>
+  <si>
+    <t>EQM</t>
+  </si>
+  <si>
+    <t>erro quadratico</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,18 +105,1467 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>venda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51A6-4064-A978-619066843A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b0 + b1*idade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51A6-4064-A978-619066843A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="267179455"/>
+        <c:axId val="267184031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="267179455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267184031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267184031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267179455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C406793D-060E-46C6-8EB8-C6F271569317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>471240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168219</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FDE34C-D5F2-45AD-88DD-6A91ABFB8FA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2149200" y="380160"/>
+            <a:ext cx="150840" cy="159120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FDE34C-D5F2-45AD-88DD-6A91ABFB8FA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2140560" y="371520"/>
+              <a:ext cx="168480" cy="176760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-07T13:26:44.770"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">250 191 832,'-76'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">418 442 2033,'-38'-52'160,"27"17"64,-5 1 128,-6 5-16,-5 4-31,-11 4-81,0-11-96,-5-14 80,-11-10-144,-11-11-64,32 42-1937,1 6 1937</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -109,7 +1611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +1643,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +1695,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,31 +1888,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ident</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>idade</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>distancia</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -384,8 +1946,35 @@
       <c r="C2">
         <v>170</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <f>$G$2 + $H$2*B2</f>
+        <v>141</v>
+      </c>
+      <c r="E2">
+        <f>(C2-D2)^2</f>
+        <v>841</v>
+      </c>
+      <c r="G2">
+        <v>141</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(E2:E31)</f>
+        <v>719.23333333333335</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>319.63333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -395,8 +1984,25 @@
       <c r="C3">
         <v>197</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <f t="shared" ref="D3:D31" si="0">$G$2 + $H$2*B3</f>
+        <v>141</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E31" si="1">(C3-D3)^2</f>
+        <v>3136</v>
+      </c>
+      <c r="K3">
+        <v>190</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3110.4333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -406,8 +2012,25 @@
       <c r="C4">
         <v>187</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2116</v>
+      </c>
+      <c r="K4">
+        <v>192</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>257.23333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -417,8 +2040,25 @@
       <c r="C5">
         <v>170</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+      <c r="K5" s="2">
+        <v>141</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>719.23333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -428,8 +2068,16 @@
       <c r="C6">
         <v>153</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -439,8 +2087,16 @@
       <c r="C7">
         <v>163</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -450,8 +2106,16 @@
       <c r="C8">
         <v>187</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -461,8 +2125,16 @@
       <c r="C9">
         <v>170</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -472,8 +2144,16 @@
       <c r="C10">
         <v>153</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -483,8 +2163,16 @@
       <c r="C11">
         <v>137</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -494,8 +2182,16 @@
       <c r="C12">
         <v>140</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -505,8 +2201,16 @@
       <c r="C13">
         <v>153</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -516,8 +2220,16 @@
       <c r="C14">
         <v>150</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -527,8 +2239,16 @@
       <c r="C15">
         <v>127</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -538,8 +2258,16 @@
       <c r="C16">
         <v>153</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -549,8 +2277,16 @@
       <c r="C17">
         <v>140</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -560,8 +2296,16 @@
       <c r="C18">
         <v>117</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -571,8 +2315,16 @@
       <c r="C19">
         <v>140</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -582,8 +2334,16 @@
       <c r="C20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -593,8 +2353,16 @@
       <c r="C21">
         <v>137</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -604,8 +2372,16 @@
       <c r="C22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -615,8 +2391,16 @@
       <c r="C23">
         <v>130</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -626,8 +2410,16 @@
       <c r="C24">
         <v>107</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -637,8 +2429,16 @@
       <c r="C25">
         <v>123</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -648,8 +2448,16 @@
       <c r="C26">
         <v>93</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -659,8 +2467,16 @@
       <c r="C27">
         <v>140</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -670,8 +2486,16 @@
       <c r="C28">
         <v>153</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -681,8 +2505,16 @@
       <c r="C29">
         <v>120</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -692,8 +2524,16 @@
       <c r="C30">
         <v>103</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -703,8 +2543,26 @@
       <c r="C31">
         <v>120</v>
       </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>